--- a/data_processed/20250710/BTCUSDQMOMENT_20250710.xlsx
+++ b/data_processed/20250710/BTCUSDQMOMENT_20250710.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>18.17851342399878</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0.9119513547144661</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2046926104417895</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.7920397481549506</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.263840307338731</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250710/BTCUSDQMOMENT_20250710.xlsx
+++ b/data_processed/20250710/BTCUSDQMOMENT_20250710.xlsx
@@ -552,19 +552,19 @@
         <v>0.136986301369863</v>
       </c>
       <c r="D3" t="n">
-        <v>114696.6298048016</v>
+        <v>114681.8544033737</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05012464798726019</v>
+        <v>0.04850074704636939</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2072550471391501</v>
+        <v>0.2224122072687891</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.615084141451075</v>
+        <v>-2.571228540895307</v>
       </c>
       <c r="H3" t="n">
-        <v>18.17851342399878</v>
+        <v>33.2178303362922</v>
       </c>
       <c r="I3" t="n">
         <v>0.9119513547144661</v>
@@ -628,19 +628,19 @@
         <v>0.3095890410958904</v>
       </c>
       <c r="D5" t="n">
-        <v>116147.6189070273</v>
+        <v>116108.8641132673</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0188566331870408</v>
+        <v>0.01719121215503349</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2325147100255451</v>
+        <v>0.2401399839392263</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.020270881295771</v>
+        <v>-1.265845000868734</v>
       </c>
       <c r="H5" t="n">
-        <v>10.27924964989481</v>
+        <v>12.5086040286615</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -662,19 +662,19 @@
         <v>0.3863013698630137</v>
       </c>
       <c r="D6" t="n">
-        <v>117217.284394655</v>
+        <v>116748.8310009253</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02196484686592211</v>
+        <v>0.004653008165384166</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2060661153584623</v>
+        <v>0.2737839248593684</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2434501259277561</v>
+        <v>-1.973925232086058</v>
       </c>
       <c r="H6" t="n">
-        <v>6.016118282555919</v>
+        <v>17.69395457043268</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -696,19 +696,19 @@
         <v>0.463013698630137</v>
       </c>
       <c r="D7" t="n">
-        <v>117270.8799816439</v>
+        <v>117266.6974678525</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.001580562100087025</v>
+        <v>-0.002184313165384341</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2624776784892653</v>
+        <v>0.267374056671252</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.371762453764724</v>
+        <v>-1.559151150081153</v>
       </c>
       <c r="H7" t="n">
-        <v>12.08480414929889</v>
+        <v>14.23413940883779</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -730,19 +730,19 @@
         <v>0.8849315068493151</v>
       </c>
       <c r="D8" t="n">
-        <v>119026.9832370137</v>
+        <v>118833.9973636744</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02193834548387701</v>
+        <v>-0.02669963728240702</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2134842188417893</v>
+        <v>0.2261499164594412</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.6940875448512808</v>
+        <v>-0.941033161531279</v>
       </c>
       <c r="H8" t="n">
-        <v>5.843225843793852</v>
+        <v>7.125176421378931</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -764,19 +764,19 @@
         <v>0.9616438356164384</v>
       </c>
       <c r="D9" t="n">
-        <v>120536.2130664099</v>
+        <v>120551.0117654942</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0689749983837466</v>
+        <v>-0.06884031825034642</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3579638697297991</v>
+        <v>0.3587020288023273</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.331737529797401</v>
+        <v>-1.358103254148493</v>
       </c>
       <c r="H9" t="n">
-        <v>8.654706075575548</v>
+        <v>8.899885722194352</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -798,19 +798,19 @@
         <v>1.210958904109589</v>
       </c>
       <c r="D10" t="n">
-        <v>122634.9669879933</v>
+        <v>121869.5443124926</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.09087213407158844</v>
+        <v>-0.1120817811249724</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3999935799533937</v>
+        <v>0.4691483585477071</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.308463975723794</v>
+        <v>-1.71764757331361</v>
       </c>
       <c r="H10" t="n">
-        <v>6.639729824756437</v>
+        <v>8.735833435738616</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -950,19 +950,19 @@
         <v>0.01643835616438356</v>
       </c>
       <c r="D14" t="n">
-        <v>113872.0468336647</v>
+        <v>113875.9553570923</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1821260446791236</v>
+        <v>0.1825808659858967</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1544857784922422</v>
+        <v>0.1508774629066905</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.5420887778476765</v>
+        <v>-0.2435196048899383</v>
       </c>
       <c r="H14" t="n">
-        <v>9.89569025375879</v>
+        <v>6.600322888226663</v>
       </c>
       <c r="I14" t="n">
         <v>1.249929219913589</v>
@@ -1070,19 +1070,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D17" t="n">
-        <v>113598.0009257659</v>
+        <v>113605.0301608585</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1400648440829272</v>
+        <v>0.1406442854260334</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1376599208834773</v>
+        <v>0.1350245255001157</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.8891510622022025</v>
+        <v>-0.6921808950884332</v>
       </c>
       <c r="H17" t="n">
-        <v>8.672433888068623</v>
+        <v>6.475307955945548</v>
       </c>
       <c r="I17" t="n">
         <v>1.243727247838831</v>
@@ -1112,19 +1112,19 @@
         <v>0.06027397260273973</v>
       </c>
       <c r="D18" t="n">
-        <v>114817.2533165212</v>
+        <v>114723.6678293223</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1130094589085851</v>
+        <v>0.1087880492824932</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1642264365049235</v>
+        <v>0.1726661219483923</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03341966573029374</v>
+        <v>-0.1988639614546169</v>
       </c>
       <c r="H18" t="n">
-        <v>3.868851857623153</v>
+        <v>4.83555270284583</v>
       </c>
       <c r="I18" t="n">
         <v>1.173167205818856</v>

--- a/data_processed/20250710/BTCUSDQMOMENT_20250710.xlsx
+++ b/data_processed/20250710/BTCUSDQMOMENT_20250710.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>14.20365000928632</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.698772678820566</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2805535823753246</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.4033899152574368</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.351564078595314</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/data_processed/20250710/BTCUSDQMOMENT_20250710.xlsx
+++ b/data_processed/20250710/BTCUSDQMOMENT_20250710.xlsx
@@ -650,10 +650,18 @@
       <c r="H5" t="n">
         <v>12.5086040286615</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0.6295521131073972</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4508479156658732</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.001005534651262963</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.434995522272491</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
